--- a/fruits.xlsx
+++ b/fruits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaominli/Documents/fruit_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaominli/Documents/fruits_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012E2D0-24D0-AF4E-A806-BD6EB8169608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC43116-9DCF-D74B-9A13-94BA0607B2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="4080" windowWidth="35560" windowHeight="16960" xr2:uid="{2DC4BD99-AB50-3C4C-932F-DF093436E8C1}"/>
+    <workbookView xWindow="38400" yWindow="14140" windowWidth="24000" windowHeight="16960" xr2:uid="{2DC4BD99-AB50-3C4C-932F-DF093436E8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,27 +50,6 @@
     <t xml:space="preserve">Right </t>
   </si>
   <si>
-    <t xml:space="preserve">flipped_4 </t>
-  </si>
-  <si>
-    <t>flipped_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> flipped_8</t>
-  </si>
-  <si>
-    <t>flipped_21</t>
-  </si>
-  <si>
-    <t>flipped_36</t>
-  </si>
-  <si>
-    <t>flipped_42</t>
-  </si>
-  <si>
-    <t>flipped_46</t>
-  </si>
-  <si>
     <t>img_2</t>
   </si>
   <si>
@@ -92,18 +71,6 @@
     <t>img_19</t>
   </si>
   <si>
-    <t>flipped_27</t>
-  </si>
-  <si>
-    <t>flipped 29</t>
-  </si>
-  <si>
-    <t>flipped 45</t>
-  </si>
-  <si>
-    <t>flipped_11</t>
-  </si>
-  <si>
     <t>Apple_Left</t>
   </si>
   <si>
@@ -176,10 +143,43 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>flipped_10</t>
-  </si>
-  <si>
-    <t>flipped_3</t>
+    <t>flippedimg_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flippedimg_8</t>
+  </si>
+  <si>
+    <t>flippedimg_21</t>
+  </si>
+  <si>
+    <t>flippedimg_36</t>
+  </si>
+  <si>
+    <t>flippedimg_42</t>
+  </si>
+  <si>
+    <t>flippedimg_46</t>
+  </si>
+  <si>
+    <t>flippedimg_27</t>
+  </si>
+  <si>
+    <t>flippedimg_10</t>
+  </si>
+  <si>
+    <t>flippedimg_3</t>
+  </si>
+  <si>
+    <t>flippedimg_11</t>
+  </si>
+  <si>
+    <t>flippedimg_4</t>
+  </si>
+  <si>
+    <t>flippedimg_29</t>
+  </si>
+  <si>
+    <t>flippedimg_45</t>
   </si>
 </sst>
 </file>
@@ -534,21 +534,25 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
     <col min="19" max="19" width="16.6640625" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" customWidth="1"/>
   </cols>
@@ -561,63 +565,63 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -682,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="V2">
         <v>4</v>
@@ -690,7 +694,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -755,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="V3">
         <v>3</v>
@@ -763,7 +767,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -828,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="V4">
         <v>7</v>
@@ -836,7 +840,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -901,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -909,7 +913,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -974,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="V6">
         <v>3</v>
@@ -982,7 +986,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1047,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="V7">
         <v>6</v>
@@ -1055,7 +1059,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1122,7 +1126,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1189,7 +1193,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1256,7 +1260,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1323,7 +1327,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1390,7 +1394,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1457,7 +1461,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1524,7 +1528,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1591,7 +1595,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -1658,7 +1662,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -1725,7 +1729,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1792,7 +1796,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1859,7 +1863,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1926,7 +1930,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
